--- a/Scraper/recetas.xlsx
+++ b/Scraper/recetas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>Fecha</t>
   </si>
@@ -34,6 +34,18 @@
     <t>url</t>
   </si>
   <si>
+    <t>03/08/2023 17:01</t>
+  </si>
+  <si>
+    <t>03/08/2023 16:01</t>
+  </si>
+  <si>
+    <t>02/08/2023 11:01</t>
+  </si>
+  <si>
+    <t>02/08/2023 07:04</t>
+  </si>
+  <si>
     <t>31/07/2023 09:00</t>
   </si>
   <si>
@@ -82,16 +94,16 @@
     <t>15/07/2023 10:01</t>
   </si>
   <si>
-    <t>13/07/2023 16:00</t>
-  </si>
-  <si>
-    <t>25/07/2023 05:23</t>
-  </si>
-  <si>
-    <t>11/07/2023 15:00</t>
-  </si>
-  <si>
-    <t>11/07/2023 10:18</t>
+    <t>Esta comida callejera italiana, sabrosa y fácil, es mi receta favorita con calabacín</t>
+  </si>
+  <si>
+    <t>Muffins salados de boniato, una receta para chuparse los dedos</t>
+  </si>
+  <si>
+    <t>Refrescante, saciante y sin encender un fuego: esta receta de calabacín es una cena saludable de verano perfecta</t>
+  </si>
+  <si>
+    <t>Así son los nuevos postres veganos de Dia (que no son yogures) con tres bases vegetales diferentes</t>
   </si>
   <si>
     <t>Despedimos el séptimo mes del año en el menú semanal vegetariano del 31 de julio</t>
@@ -142,31 +154,22 @@
     <t>Crujientes de brócoli o smashed broccoli: receta de un picoteo vegetariano, tan saludable como apetecible</t>
   </si>
   <si>
-    <t>Ensalada de pimientos: receta de un clásico del verano, con el truco para que sea aún más delicosa</t>
-  </si>
-  <si>
-    <t>Solo necesitas 10 minutos para preparar esta receta de verano y cenar un plato fresco, saludable y vegetariano</t>
-  </si>
-  <si>
-    <t>Este truco convierte uno de los aperitivos que más nos gustan en una cena completa y saludable</t>
-  </si>
-  <si>
-    <t>Lahanosalata, una clásica ensalada de col griega: receta saludable, fresca e intensa</t>
+    <t>Miguel Ayuso Rejas</t>
   </si>
   <si>
     <t>Inés Vazquez Noya</t>
   </si>
   <si>
+    <t>Liliana Fuchs</t>
+  </si>
+  <si>
     <t>Carmen Tía Alia</t>
   </si>
   <si>
-    <t>Liliana Fuchs</t>
-  </si>
-  <si>
     <t>Pakus</t>
   </si>
   <si>
-    <t>Miguel Ayuso Rejas</t>
+    <t>Harina integral 200 gLevadura química cucharadita1 Sal y pimienta al gusto Boniato cocido161 gLeche o bebida vegetal de almendras, de avena o de soja300 mlAceite de girasol 30 mlEspinaca fresca 50 gGuisantes 30 gComino molido 1 cuchara aproximadamente10 g</t>
   </si>
   <si>
     <t>Queso halloumi 200 gMiel 15 mlSemillas de sésamo 5 g</t>
@@ -202,10 +205,7 @@
     <t>Brócoli cortado en arbolitos1 Queso rallado para espolvorear en cada brócoliPasta de chile picante o copos de chile o guindilla, al gustoAceite de oliva virgen extra para elaborar la salsa picanteSal y pimienta al gusto</t>
   </si>
   <si>
-    <t>Pimiento rojo asado1 Diente de ajo 2 Cebolleta mediaSal gruesa o en escamasAceite de oliva virgen extra</t>
-  </si>
-  <si>
-    <t>Col blanca media cabeza0.5 Cebolla blanca 0.5 Perejil fresco manojo generosoLimón zumo y ralladura1 Sal gruesa pizcaAceite de oliva virgen extra 2 a 3 cucharadasSemillas de sésamo</t>
+    <t>Encender el horno a 190 ºC.En un cuenco mezclar los ingredientes secos: harina integral, levadura química, sal y pimienta. Integrar con un batidor de varilla o un tenedor. Reservar. Por otra parte, en un robot de cocina o licuadora, triturar 100 g de boniato ya cocido con la leche o bebida y aceite de girasol. Pulsar por varios segundos hasta conseguir una bebida liquida de color naranja. Agregar este último al recipiente con la harina e integrar hasta tener una masa homogénea. Momento de agregar la espinaca fresca, los guisantes y los 80 g de boniato restantes en cubitos, más el comino molido. Revolver nuevamente.  Acomodar en molde de muffins de silicona y verter la mezcla anterior sin alcanzar la superficie. De utilizar moldes de acero, pintar con aceite toda la superficie. Cocinar por 30 minutos. Dejar reposar unos 10 minutos antes de desmoldar y disfrutar.</t>
   </si>
   <si>
     <t>Cortamos el queso halloumi en diez piezas de un tamaño aproximado y con forma de lingote. Los ponemos en remojo con abundante agua y los dejamos reposar en la nevera 30-40 minutos. Con esto conseguiremos rebajar un poco el punto de sal que tiene este queso. Secamos los palitos de halloumi con papel absorbente y los ensartamos en brochetas, aunque también los podemos dejar tal cual. Los marcamos en una parrilla bien caliente por todas sus caras. Después los pincelamos con miel y los espolvoreamos con semillas de sésamo. Servimos inmediatamente.</t>
@@ -241,10 +241,16 @@
     <t>Comenzamos cortando el brócoli, para separar los distintos arbolitos. Seguidamente los cocemos con agua y una pizca de sal, dejando que queden bien hechos. Tras cocerlos durante 15 minutos, los escurrimos bien y los repartimos en una bandeja de horno cubierta con papel de hornear. Con un vaso, procedemos a espachurrar o aplastar los arbolitos de brócoli. Mientras, preparamos un aceite picante de chili, diluyendo un poco de pasta de chiles en aceite de oliva. También podemos utilizar copos de chile o utilizar una combinación de aceite con pimentón picante o cualquier especia que nos guste. Untamos a nuestro gusto los arbolitos de brócoli aplastados con ese preparado picante y espolvoreamos con queso parmesano rallado, -sin abusar- procediendo a gratinar en el horno durante 8 minutos a 230ºC. Tras ese tiempo damos la vuelta a los trozos de brócoli y dejamos dentro del horno ya apagado otro par de minutos, para que queden aún más crujientes.   Si los preparamos en airfryer o freidora de aire sin aceite, colocamos los trozos de brócoli ya preparados en la cesta y cocinamos 6-8 minutos a 200ºC revisando a mitad de la cocción para ver cómo va, para evitar que se doren en exceso. En este caso hay que hacerlos en tandas de seis u ocho trozos para que no se toquen unos con otros.</t>
   </si>
   <si>
-    <t>Para hacer esta ensalada partimos de unos buenos pimientos asados, que hemos pelado, despepitado, y separado en tiras. Por cada pimiento añadimos media cebolleta cortada en juliana fina y dos dientes de ajo laminados y cocinados en aceite de oliva virgen extra a baja temperatura, hasta que estén dorados. Dejamos que se enfríen los ajos unos minutos y los echamos sobre la ensalada, junto al aceite aromatizado con ellos. Mezclamos todo y terminamos la ensalada con un poco des sal gruesa o, mejor, unas escamas de sal. Se puede echar también un chorrito de vinagre, pero a mi me gustan sin ningún añadido más.</t>
-  </si>
-  <si>
-    <t>Retirar la primera capa de hojas de la col blanca. Cortar una rodaja en la base para apoyar y facilitar el corte. Cortar cuidadosamente en tiras alargadas y finas. Para ello nos podemos ayudar de una mandolina, o bien hacerlo directamente con un buen cuchillo. Añadir a una ensaladera grande. Agregar una pizca de sal marina gruesa y con las manos hacer un masaje al repollo por unos minutos. Cortar la cebolla en juliana o tiras alargadas y finas, y en crudo agregar al repollo. Añadir la ralladura y zumo de limón, el perejil picado y el aceite de oliva encima de las verduras y revolver bien para integrar. Servir con unas semillas de sésamo por encima.</t>
+    <t>https://www.directoalpaladar.com/recetas-vegetarianas/esta-comida-callejera-italiana-sabrosa-facil-mi-receta-favorita-calabacin</t>
+  </si>
+  <si>
+    <t>https://www.directoalpaladar.com/recetas-vegetarianas/muffins-salados-boniato-receta-para-chuparse-dedos</t>
+  </si>
+  <si>
+    <t>https://www.directoalpaladar.com/recetas-vegetarianas/refrescante-saciante-encender-fuego-esta-receta-calabacin-cena-saludable-verano-perfecta</t>
+  </si>
+  <si>
+    <t>https://www.directoalpaladar.com/recetas-vegetarianas/asi-nuevos-postres-veganos-dia-que-no-yogures-tres-bases-vegetales-diferentes</t>
   </si>
   <si>
     <t>https://www.directoalpaladar.com/recetas-vegetarianas/despedimos-septimo-mes-ano-menu-semanal-vegetariano-31-julio</t>
@@ -293,18 +299,6 @@
   </si>
   <si>
     <t>https://www.directoalpaladar.com/recetas-vegetarianas/receta-crujientes-brocoli-smashed-broccoli-perfectos-para-saludable-picoteo-finde</t>
-  </si>
-  <si>
-    <t>https://www.directoalpaladar.com/recetas-vegetarianas/ensalada-pimientos-receta-clasico-verano-truco-sea-delicosa</t>
-  </si>
-  <si>
-    <t>https://www.directoalpaladar.com/recetario/solo-necesitas-10-minutos-para-preparar-esta-receta-verano-cenar-plato-fresco-saludable-vegetariano</t>
-  </si>
-  <si>
-    <t>https://www.directoalpaladar.com/recetas-vegetarianas/este-truco-convierte-uno-aperitivos-que-nos-gustan-cena-completa-saludable</t>
-  </si>
-  <si>
-    <t>https://www.directoalpaladar.com/recetas-vegetarianas/lahanosalata-clasica-ensalada-col-griega-receta-saludable-fresca-e-intensa</t>
   </si>
 </sst>
 </file>
@@ -712,7 +706,7 @@
         <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -729,10 +723,10 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -743,16 +737,10 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -763,16 +751,10 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -783,10 +765,10 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -797,10 +779,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -814,13 +802,13 @@
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -831,16 +819,16 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -851,16 +839,10 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -871,16 +853,10 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -891,16 +867,16 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -911,10 +887,16 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -925,16 +907,16 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -945,16 +927,16 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -965,10 +947,16 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -979,16 +967,10 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -999,16 +981,16 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1019,10 +1001,16 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1033,10 +1021,10 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1047,16 +1035,16 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Scraper/recetas.xlsx
+++ b/Scraper/recetas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>Fecha</t>
   </si>
@@ -34,6 +34,9 @@
     <t>url</t>
   </si>
   <si>
+    <t>04/08/2023 15:01</t>
+  </si>
+  <si>
     <t>03/08/2023 17:01</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>17/07/2023 09:23</t>
   </si>
   <si>
-    <t>15/07/2023 10:01</t>
+    <t>Este desayuno con huevos, típico de Oriente Medio, es la cena veraniega perfecta</t>
   </si>
   <si>
     <t>Esta comida callejera italiana, sabrosa y fácil, es mi receta favorita con calabacín</t>
@@ -151,9 +154,6 @@
     <t>Recetas fáciles para atravesar la ola de calor en el menú semanal vegetariano del 17 de julio</t>
   </si>
   <si>
-    <t>Crujientes de brócoli o smashed broccoli: receta de un picoteo vegetariano, tan saludable como apetecible</t>
-  </si>
-  <si>
     <t>Miguel Ayuso Rejas</t>
   </si>
   <si>
@@ -166,9 +166,6 @@
     <t>Carmen Tía Alia</t>
   </si>
   <si>
-    <t>Pakus</t>
-  </si>
-  <si>
     <t>Harina integral 200 gLevadura química cucharadita1 Sal y pimienta al gusto Boniato cocido161 gLeche o bebida vegetal de almendras, de avena o de soja300 mlAceite de girasol 30 mlEspinaca fresca 50 gGuisantes 30 gComino molido 1 cuchara aproximadamente10 g</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>Hojas verdes 100 gMaíz dulce 50 gManzana roja o verde1 Miel 1 cucharadaVinagre de vino blanco 1 cucharadaAceite de oliva virgen extra 2 a 3 cucharadasSal y pimienta al gusto Orégano seco opcionalSemillas de calabaza opcional - para la decoración</t>
   </si>
   <si>
-    <t>Brócoli cortado en arbolitos1 Queso rallado para espolvorear en cada brócoliPasta de chile picante o copos de chile o guindilla, al gustoAceite de oliva virgen extra para elaborar la salsa picanteSal y pimienta al gusto</t>
-  </si>
-  <si>
     <t>Encender el horno a 190 ºC.En un cuenco mezclar los ingredientes secos: harina integral, levadura química, sal y pimienta. Integrar con un batidor de varilla o un tenedor. Reservar. Por otra parte, en un robot de cocina o licuadora, triturar 100 g de boniato ya cocido con la leche o bebida y aceite de girasol. Pulsar por varios segundos hasta conseguir una bebida liquida de color naranja. Agregar este último al recipiente con la harina e integrar hasta tener una masa homogénea. Momento de agregar la espinaca fresca, los guisantes y los 80 g de boniato restantes en cubitos, más el comino molido. Revolver nuevamente.  Acomodar en molde de muffins de silicona y verter la mezcla anterior sin alcanzar la superficie. De utilizar moldes de acero, pintar con aceite toda la superficie. Cocinar por 30 minutos. Dejar reposar unos 10 minutos antes de desmoldar y disfrutar.</t>
   </si>
   <si>
@@ -238,7 +232,7 @@
     <t>Lavar las hojas verdes y colocar en una ensaladera. Agregar los granos de maíz dulce. Lavar la manzana y cortar en dados o finas láminas. Añadir a la ensaladera. Preparar el aliño en un cuenco separado con sal, pimienta, orégano seco, vinagre de vino, miel y aceite de oliva. Revolver hasta emulsionar. Volcar sobre las verduras frescas, y revolver para integrar. Servir y terminar con unas pipas de calabaza en la superficie.</t>
   </si>
   <si>
-    <t>Comenzamos cortando el brócoli, para separar los distintos arbolitos. Seguidamente los cocemos con agua y una pizca de sal, dejando que queden bien hechos. Tras cocerlos durante 15 minutos, los escurrimos bien y los repartimos en una bandeja de horno cubierta con papel de hornear. Con un vaso, procedemos a espachurrar o aplastar los arbolitos de brócoli. Mientras, preparamos un aceite picante de chili, diluyendo un poco de pasta de chiles en aceite de oliva. También podemos utilizar copos de chile o utilizar una combinación de aceite con pimentón picante o cualquier especia que nos guste. Untamos a nuestro gusto los arbolitos de brócoli aplastados con ese preparado picante y espolvoreamos con queso parmesano rallado, -sin abusar- procediendo a gratinar en el horno durante 8 minutos a 230ºC. Tras ese tiempo damos la vuelta a los trozos de brócoli y dejamos dentro del horno ya apagado otro par de minutos, para que queden aún más crujientes.   Si los preparamos en airfryer o freidora de aire sin aceite, colocamos los trozos de brócoli ya preparados en la cesta y cocinamos 6-8 minutos a 200ºC revisando a mitad de la cocción para ver cómo va, para evitar que se doren en exceso. En este caso hay que hacerlos en tandas de seis u ocho trozos para que no se toquen unos con otros.</t>
+    <t>https://www.directoalpaladar.com/recetas-vegetarianas/este-desayuno-huevos-tipico-oriente-medio-cena-veraniega-perfecta</t>
   </si>
   <si>
     <t>https://www.directoalpaladar.com/recetas-vegetarianas/esta-comida-callejera-italiana-sabrosa-facil-mi-receta-favorita-calabacin</t>
@@ -296,9 +290,6 @@
   </si>
   <si>
     <t>https://www.directoalpaladar.com/recetas-vegetarianas/recetas-faciles-para-atravezar-ola-calor-menu-semanal-vegetariano-17-julio</t>
-  </si>
-  <si>
-    <t>https://www.directoalpaladar.com/recetas-vegetarianas/receta-crujientes-brocoli-smashed-broccoli-perfectos-para-saludable-picoteo-finde</t>
   </si>
 </sst>
 </file>
@@ -706,7 +697,7 @@
         <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -717,16 +708,10 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -737,10 +722,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -754,7 +745,7 @@
         <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -765,10 +756,10 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -779,16 +770,10 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -799,16 +784,16 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -819,16 +804,16 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -839,10 +824,16 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -853,10 +844,10 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -867,16 +858,10 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -887,16 +872,16 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -910,13 +895,13 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -930,13 +915,13 @@
         <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -950,13 +935,13 @@
         <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -967,10 +952,16 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -981,16 +972,10 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1004,13 +989,13 @@
         <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1023,8 +1008,14 @@
       <c r="C20" t="s">
         <v>47</v>
       </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1035,16 +1026,10 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Scraper/recetas.xlsx
+++ b/Scraper/recetas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>Fecha</t>
   </si>
@@ -34,6 +34,9 @@
     <t>url</t>
   </si>
   <si>
+    <t>06/08/2023 17:00</t>
+  </si>
+  <si>
     <t>04/08/2023 15:01</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>17/07/2023 10:01</t>
   </si>
   <si>
-    <t>17/07/2023 09:23</t>
+    <t>Paté rosa de remolacha y tofu, una receta para decorar la mesa</t>
   </si>
   <si>
     <t>Este desayuno con huevos, típico de Oriente Medio, es la cena veraniega perfecta</t>
@@ -151,21 +154,21 @@
     <t>Ensalada de lechuga, maíz dulce y manzana, una receta de verano de Karlos Arguiñano</t>
   </si>
   <si>
-    <t>Recetas fáciles para atravesar la ola de calor en el menú semanal vegetariano del 17 de julio</t>
+    <t>Inés Vazquez Noya</t>
   </si>
   <si>
     <t>Miguel Ayuso Rejas</t>
   </si>
   <si>
-    <t>Inés Vazquez Noya</t>
-  </si>
-  <si>
     <t>Liliana Fuchs</t>
   </si>
   <si>
     <t>Carmen Tía Alia</t>
   </si>
   <si>
+    <t>Tofu blando 100 gRemolacha cocida 50 gAgua de la remolacha - 2 cucharadasComino molido 10 gSal y pimienta al gusto</t>
+  </si>
+  <si>
     <t>Harina integral 200 gLevadura química cucharadita1 Sal y pimienta al gusto Boniato cocido161 gLeche o bebida vegetal de almendras, de avena o de soja300 mlAceite de girasol 30 mlEspinaca fresca 50 gGuisantes 30 gComino molido 1 cuchara aproximadamente10 g</t>
   </si>
   <si>
@@ -199,6 +202,9 @@
     <t>Hojas verdes 100 gMaíz dulce 50 gManzana roja o verde1 Miel 1 cucharadaVinagre de vino blanco 1 cucharadaAceite de oliva virgen extra 2 a 3 cucharadasSal y pimienta al gusto Orégano seco opcionalSemillas de calabaza opcional - para la decoración</t>
   </si>
   <si>
+    <t>Primero, tomar el tofu y quitar el líquido del envase. Presionar encima con un plato, de tal forma que vaya soltando todo el líquido y luego escurrir entre dos hojas de papel de cocina. Cortar en cubos o romper con las manos. En un robot de cocina, agregar las porciones de tofu, junto a la remolacha troceada, el comino molido, la sal, la pimienta y la cucharada de agua de la remolacha. Triturar hasta obtener una pasta homogénea.  De ser necesario, agregar 1 a 2 cucharaditas más de agua, si ves que la preparación necesita mas hidratación hasta alcanzar una textura cremosa.</t>
+  </si>
+  <si>
     <t>Encender el horno a 190 ºC.En un cuenco mezclar los ingredientes secos: harina integral, levadura química, sal y pimienta. Integrar con un batidor de varilla o un tenedor. Reservar. Por otra parte, en un robot de cocina o licuadora, triturar 100 g de boniato ya cocido con la leche o bebida y aceite de girasol. Pulsar por varios segundos hasta conseguir una bebida liquida de color naranja. Agregar este último al recipiente con la harina e integrar hasta tener una masa homogénea. Momento de agregar la espinaca fresca, los guisantes y los 80 g de boniato restantes en cubitos, más el comino molido. Revolver nuevamente.  Acomodar en molde de muffins de silicona y verter la mezcla anterior sin alcanzar la superficie. De utilizar moldes de acero, pintar con aceite toda la superficie. Cocinar por 30 minutos. Dejar reposar unos 10 minutos antes de desmoldar y disfrutar.</t>
   </si>
   <si>
@@ -232,6 +238,9 @@
     <t>Lavar las hojas verdes y colocar en una ensaladera. Agregar los granos de maíz dulce. Lavar la manzana y cortar en dados o finas láminas. Añadir a la ensaladera. Preparar el aliño en un cuenco separado con sal, pimienta, orégano seco, vinagre de vino, miel y aceite de oliva. Revolver hasta emulsionar. Volcar sobre las verduras frescas, y revolver para integrar. Servir y terminar con unas pipas de calabaza en la superficie.</t>
   </si>
   <si>
+    <t>https://www.directoalpaladar.com/recetas-vegetarianas/pate-rosa-remolacha-tofu-receta-para-decorar-mesa</t>
+  </si>
+  <si>
     <t>https://www.directoalpaladar.com/recetas-vegetarianas/este-desayuno-huevos-tipico-oriente-medio-cena-veraniega-perfecta</t>
   </si>
   <si>
@@ -287,9 +296,6 @@
   </si>
   <si>
     <t>https://www.directoalpaladar.com/recetas-vegetarianas/ensalada-lechuga-maiz-dulce-manzana-receta-verano-arguinano</t>
-  </si>
-  <si>
-    <t>https://www.directoalpaladar.com/recetas-vegetarianas/recetas-faciles-para-atravezar-ola-calor-menu-semanal-vegetariano-17-julio</t>
   </si>
 </sst>
 </file>
@@ -696,8 +702,14 @@
       <c r="C2" t="s">
         <v>46</v>
       </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -708,10 +720,10 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -724,14 +736,8 @@
       <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -742,10 +748,16 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -759,7 +771,7 @@
         <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -770,10 +782,10 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -784,16 +796,10 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -804,16 +810,16 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -824,16 +830,16 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -844,10 +850,16 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -858,10 +870,10 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -872,16 +884,10 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -892,16 +898,16 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -912,16 +918,16 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -932,16 +938,16 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -952,16 +958,16 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -972,10 +978,16 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -986,16 +998,10 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1006,16 +1012,16 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1026,10 +1032,16 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Scraper/recetas.xlsx
+++ b/Scraper/recetas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>Fecha</t>
   </si>
@@ -34,6 +34,15 @@
     <t>url</t>
   </si>
   <si>
+    <t>07/08/2023 16:00</t>
+  </si>
+  <si>
+    <t>07/08/2023 09:00</t>
+  </si>
+  <si>
+    <t>07/08/2023 06:00</t>
+  </si>
+  <si>
     <t>06/08/2023 17:00</t>
   </si>
   <si>
@@ -85,13 +94,13 @@
     <t>19/07/2023 10:01</t>
   </si>
   <si>
-    <t>19/07/2023 07:01</t>
-  </si>
-  <si>
-    <t>18/07/2023 10:25</t>
-  </si>
-  <si>
-    <t>17/07/2023 10:01</t>
+    <t>Tallarines de pepino con yogur, una receta que simplemente grita verano</t>
+  </si>
+  <si>
+    <t>Recetas frescas para disfrutar el verano en el menú semanal vegetariano del 7 de agosto</t>
+  </si>
+  <si>
+    <t>La "paradoja del queso": por qué los vegetarianos no quieren comer carne, pero les dan igual los lácteos</t>
   </si>
   <si>
     <t>Paté rosa de remolacha y tofu, una receta para decorar la mesa</t>
@@ -145,27 +154,21 @@
     <t>Ensalada de patatas, pepino y maíz dulce: una combinación de sabores bien rica e ideal para el calor</t>
   </si>
   <si>
-    <t>Siete trucos para exprimir más zumo de limón más fácilmente sin usar el exprimidor</t>
-  </si>
-  <si>
-    <t>Croquetas de arroz integral, zanahoria y curry, una receta que te sacará de más de un apuro</t>
-  </si>
-  <si>
-    <t>Ensalada de lechuga, maíz dulce y manzana, una receta de verano de Karlos Arguiñano</t>
-  </si>
-  <si>
     <t>Inés Vazquez Noya</t>
   </si>
   <si>
+    <t>Liliana Fuchs</t>
+  </si>
+  <si>
     <t>Miguel Ayuso Rejas</t>
   </si>
   <si>
-    <t>Liliana Fuchs</t>
-  </si>
-  <si>
     <t>Carmen Tía Alia</t>
   </si>
   <si>
+    <t>Pepino 2 Yogur natural bote pequeño1 Ralladura de limón 0.5 Sal y pimienta al gusto Semillas de sésamo Eneldo seco o hierba de preferencia</t>
+  </si>
+  <si>
     <t>Tofu blando 100 gRemolacha cocida 50 gAgua de la remolacha - 2 cucharadasComino molido 10 gSal y pimienta al gusto</t>
   </si>
   <si>
@@ -196,10 +199,7 @@
     <t>Patata cocidas y frías200 gPepino 100 gMaíz dulce 80 gPerejil o cilantro o eneldo -- puñado generosoYogur natural o mayonesa80 mlLimón zumo y ralladura1 Aceite de oliva virgen extra Sal y pimienta al gusto</t>
   </si>
   <si>
-    <t>Arroz de grano largo o redondo o integral350 gZanahoria rallada200 gCurry molido 20 gAjo en polvo o cebolla en polvo10 gSal y pimienta al gusto Harina de trigo o de arroz, garbanzos o integral30 gPan rallado o panko para rebozarOrégano seco 15 g</t>
-  </si>
-  <si>
-    <t>Hojas verdes 100 gMaíz dulce 50 gManzana roja o verde1 Miel 1 cucharadaVinagre de vino blanco 1 cucharadaAceite de oliva virgen extra 2 a 3 cucharadasSal y pimienta al gusto Orégano seco opcionalSemillas de calabaza opcional - para la decoración</t>
+    <t>Para los tallarines de pepino, lavar y secar bien las unidades. Hacer los espirales usando un espiralizador, una mandolina, un cortador manual o un pelador con dientes. Una vez listos, reservar en un cuenco hondo. Agregar la ralladura de limón y el yogur natural. Revolver con cuidado para no romper los tallarines. Condimentar con la sal y la pimienta, y las semillas de sésamo. Conservar en la nevera hasta el momento de servir y espolvorear el eneldo seco, o cualquier hierba fresca de preferencia.</t>
   </si>
   <si>
     <t>Primero, tomar el tofu y quitar el líquido del envase. Presionar encima con un plato, de tal forma que vaya soltando todo el líquido y luego escurrir entre dos hojas de papel de cocina. Cortar en cubos o romper con las manos. En un robot de cocina, agregar las porciones de tofu, junto a la remolacha troceada, el comino molido, la sal, la pimienta y la cucharada de agua de la remolacha. Triturar hasta obtener una pasta homogénea.  De ser necesario, agregar 1 a 2 cucharaditas más de agua, si ves que la preparación necesita mas hidratación hasta alcanzar una textura cremosa.</t>
@@ -232,10 +232,13 @@
     <t>Comenzar hirviendo las patatas enteras en un cazo con abundante agua, hasta que estén tiernas. Una vez listas, escurrir, reservar y dejar enfriar. Con ayuda de un cuchillo, quitar la piel y cortar en láminas, cuadrados grandes o cubos pequeños. Tomar el pepino, cortar a lo largo y luego en mitades. Reservar. En una ensaladera o cuenco profundo, volcar las patatas, el pepino y el maíz. Condimentar con la sal y la pimienta. Agregar el yogur natural y aligerar con el zumo de limón y aceite de oliva virgen extra para lograr una simil salsa o vinagreta. Por último, añadir el perejil picado, la ralladura de limón y revolver una vez más para integrar los sabores. Conservar en la nevera hasta el momento de servir para una mayor frescura.</t>
   </si>
   <si>
-    <t>En una olla, cocer el arroz por 20 a 25 minutos, siguiendo las instrucciones del paquete. Reservar hasta enfriar.Tomar la zanahoria y rallar de lado más fino. En un robot de cocina, batidora o procesador de alimentos, colocar el arroz cocido con la zanahoria y triturar unos segundos para que se rompan los granos, sin desintegrar los ingredientes. La intención es que tenga una textura imperfecta y granulada. En un cuenco, mezclar la mezcla anterior y condimentar con el curry, el orégano seco, el ajo, la sal y la pimienta en polvo. Integrar hasta tener una masa homogénea. Incorporar las cucharadas de harina (a elección de cada uno) para absorber cualquier resto de humedad. Al final, la masa se debe poder manejar con las manos. De no ser el caso, incorporar una cucharada de harina, o las necesarias, hasta alcanzar la consistencia optima.Formar las croquetas de 15 a 16 unidades con las manos, dándole la forma deseadas. Intentar que todas tengan el mismo tamaño y dimensión para lograr una cocción uniforme. Pasar por pan rallado o panko para un acabado crujiente. Hornear a 180 ºC con calor arriba y abajo por 30 minutos aproximadamente, hasta que estén doradas.</t>
-  </si>
-  <si>
-    <t>Lavar las hojas verdes y colocar en una ensaladera. Agregar los granos de maíz dulce. Lavar la manzana y cortar en dados o finas láminas. Añadir a la ensaladera. Preparar el aliño en un cuenco separado con sal, pimienta, orégano seco, vinagre de vino, miel y aceite de oliva. Revolver hasta emulsionar. Volcar sobre las verduras frescas, y revolver para integrar. Servir y terminar con unas pipas de calabaza en la superficie.</t>
+    <t>https://www.directoalpaladar.com/recetas-vegetarianas/tallarines-pepino-yogur-receta-que-simplemente-grita-verano</t>
+  </si>
+  <si>
+    <t>https://www.directoalpaladar.com/recetas-vegetarianas/recetas-frescas-para-disfrutar-verano-menu-semanal-vegetariano-7-agosto</t>
+  </si>
+  <si>
+    <t>https://www.directoalpaladar.com/recetas-vegetarianas/paradoja-queso-que-vegetarianos-no-quieren-comer-carne-les-dan-igual-lacteos</t>
   </si>
   <si>
     <t>https://www.directoalpaladar.com/recetas-vegetarianas/pate-rosa-remolacha-tofu-receta-para-decorar-mesa</t>
@@ -287,15 +290,6 @@
   </si>
   <si>
     <t>https://www.directoalpaladar.com/recetas-vegetarianas/ensalada-patatas-pepino-maiz-dulce-combinacion-sabores-bien-rica-e-ideal-para-calor</t>
-  </si>
-  <si>
-    <t>https://www.directoalpaladar.com/ingredientes-y-alimentos/siete-trucos-para-exprimir-zumo-limon-facilmente-usar-exprimidor</t>
-  </si>
-  <si>
-    <t>https://www.directoalpaladar.com/recetas-vegetarianas/croquetas-arroz-integral-zanahoria-curry-receta-que-te-sacara-apuro</t>
-  </si>
-  <si>
-    <t>https://www.directoalpaladar.com/recetas-vegetarianas/ensalada-lechuga-maiz-dulce-manzana-receta-verano-arguinano</t>
   </si>
 </sst>
 </file>
@@ -706,10 +700,10 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -720,10 +714,10 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -737,7 +731,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -754,10 +748,10 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -771,7 +765,7 @@
         <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -785,7 +779,7 @@
         <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -798,8 +792,14 @@
       <c r="C8" t="s">
         <v>46</v>
       </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -810,16 +810,10 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -830,16 +824,10 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -850,16 +838,10 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -870,10 +852,16 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -884,10 +872,16 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -904,10 +898,10 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -920,14 +914,8 @@
       <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -938,16 +926,10 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -958,16 +940,16 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -981,13 +963,13 @@
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -998,10 +980,16 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1015,13 +1003,13 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1035,13 +1023,13 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Scraper/recetas.xlsx
+++ b/Scraper/recetas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
   <si>
     <t>Fecha</t>
   </si>
@@ -34,6 +34,21 @@
     <t>url</t>
   </si>
   <si>
+    <t>11/08/2023 11:01</t>
+  </si>
+  <si>
+    <t>11/08/2023 10:01</t>
+  </si>
+  <si>
+    <t>10/08/2023 16:01</t>
+  </si>
+  <si>
+    <t>10/08/2023 10:01</t>
+  </si>
+  <si>
+    <t>09/08/2023 16:00</t>
+  </si>
+  <si>
     <t>07/08/2023 16:00</t>
   </si>
   <si>
@@ -79,19 +94,19 @@
     <t>24/07/2023 07:00</t>
   </si>
   <si>
-    <t>22/07/2023 10:00</t>
-  </si>
-  <si>
-    <t>21/07/2023 16:01</t>
-  </si>
-  <si>
-    <t>20/07/2023 16:01</t>
-  </si>
-  <si>
-    <t>19/07/2023 16:01</t>
-  </si>
-  <si>
-    <t>19/07/2023 10:01</t>
+    <t>Las lentejas también son para el verano: esta ensalada es fácil, saludable, rápida y muy rica</t>
+  </si>
+  <si>
+    <t>Espaguetis con salsa de berenjena, tomate y queso feta: una receta casera tan deliciosa que la querrás hacer una y otra vez</t>
+  </si>
+  <si>
+    <t>Hamburguesa de garbanzos: cómo resolver una cena con esta receta fácil y rápida para todos los públicos</t>
+  </si>
+  <si>
+    <t>Arroz al coco, un truco para darle más sabor al cereal de todos los días</t>
+  </si>
+  <si>
+    <t>Palomitas de maíz al curry, un picoteo diferente y adictivo</t>
   </si>
   <si>
     <t>Tallarines de pepino con yogur, una receta que simplemente grita verano</t>
@@ -139,31 +154,28 @@
     <t>No sabía que mis ensaladas de legumbres tenían un fallo. Todo ha cambiado desde que no me salto este truco</t>
   </si>
   <si>
-    <t>Cómo hacer fatteh, la ensalada de garbanzos especiados, yogur y pan de pita más crujiente de Oriente Medio</t>
-  </si>
-  <si>
-    <t>Frittata de verduras en molde de muffins, un clásico italiano para disfrutar en formato individual</t>
-  </si>
-  <si>
-    <t>Cuscús a la naranja en 10 minutos: una receta con un truco sencillo para darle más sabor al cereal</t>
-  </si>
-  <si>
-    <t>Trufas de granola, un snack fácil de hacer, nutritivo y bien rico con solo cuatro ingredientes</t>
-  </si>
-  <si>
-    <t>Ensalada de patatas, pepino y maíz dulce: una combinación de sabores bien rica e ideal para el calor</t>
-  </si>
-  <si>
     <t>Inés Vazquez Noya</t>
   </si>
   <si>
+    <t>Carmen Tía Alia</t>
+  </si>
+  <si>
     <t>Liliana Fuchs</t>
   </si>
   <si>
     <t>Miguel Ayuso Rejas</t>
   </si>
   <si>
-    <t>Carmen Tía Alia</t>
+    <t>Espaguetis (o cualquier otra pasta)300 gCebolla 50 gDiente de ajo 2 Berenjena 200 gVino blanco 50 mlTomates en conserva natural 350 gTomate concentrado 30 gHierbas provenzales 1 cucharaditaOrégano seco 1 cucharaditaQueso feta desmigado75 gSal Pimienta negra molida Aceite de oliva virgen extra Azúcar (opcional)</t>
+  </si>
+  <si>
+    <t>Garbanzos cocidos en conserva 200 gCebolla blanca 0.5 Semillas de sésamo cucharadas2 Comino molido 10 gPimentón ahumado 10 gOrégano seco o fresco15 gSal y pimienta al gusto Aceite de oliva virgen extra 2 cucharadas para la hamburguesa y un extra para cocinar en la sartén</t>
+  </si>
+  <si>
+    <t>Arroz de grano largo o Jazmín o basmati150 gLeche de coco 250 mlAgua 250 mlOrégano seco o fresco - opcionalCoco rallado 3 a 4 cucharadas</t>
+  </si>
+  <si>
+    <t>Maíz pisingallo especial para palomitas60 gRalladura de limón 1 Curry molido 12 gSirope de ágave o miel30 mlSal en escamas pizca generosa</t>
   </si>
   <si>
     <t>Pepino 2 Yogur natural bote pequeño1 Ralladura de limón 0.5 Sal y pimienta al gusto Semillas de sésamo Eneldo seco o hierba de preferencia</t>
@@ -184,19 +196,16 @@
     <t>Patata mediana2 Zanahoria 1 Pepino 1 Cebolla morada 1 Huevo 2 Maíz en grano (opcional)50 gMayonesa 3 cucharadasVinagre de arroz 2 cucharadasAzúcar 1 cucharadaMostaza de Dijon 1 cucharadita</t>
   </si>
   <si>
-    <t>Pan de pita 3 Garbanzos en conserva, 1 bote grandeYogur griego 250 mlTahini 2 cucharadasZumo de limón 2 Diente de ajo 3 Piñones 25 gComino molido Sal Pimienta negra molida Perejil fresco</t>
-  </si>
-  <si>
-    <t>Harina de garbanzo 150 gAgua 200 mlBicarbonato sódico 5 gCebolla en polvo 5 gOrégano seco 10 gSal y pimienta al gusto Espinaca fresca 50 gPimiento verde 30 gGuisantes 40 gMaíz amarillo40 g</t>
-  </si>
-  <si>
-    <t>Cuscús 200 gZumo de naranja 200 mlSal y pimienta al gusto</t>
-  </si>
-  <si>
-    <t>Granola 150 gMantequilla de cacahuete natural o de almendras - aproxiadamente100 gEsencia de vainilla 10 gChocolate negro o blanco - opcional</t>
-  </si>
-  <si>
-    <t>Patata cocidas y frías200 gPepino 100 gMaíz dulce 80 gPerejil o cilantro o eneldo -- puñado generosoYogur natural o mayonesa80 mlLimón zumo y ralladura1 Aceite de oliva virgen extra Sal y pimienta al gusto</t>
+    <t>Picamos finamente la cebolla y rallamos los dientes de ajo. Calentamos un fondo de aceite de oliva virgen extra en una sartén amplia y los pochamos durante diez minutos. Mientras tanto, pelamos y cortamos la berenjena en pequeños dados. La incorporamos a la sartén, sazonamos al gusto y continuamos sofriendo las verduras. Esta vez necesitaremos más tiempo, unos 15-20 minutos, para que la berenjena quede bien tierna y melosa. Añadimos el vino y cocemos a fuego fuerte hasta que se haya evaporado.A continuación agregamos los tomates, troceamos o machacados, junto con el tomate concentrado y las hierbas. Ajustamos el punto de sal y, si lo deseamos, agregamos una pizca de azúcar para equilibrar la acidez. Cocemos a fuego muy lento durante 45-50 minutos o hasta obtener una salsa espesa.Cocemos la pasta en abundante agua con sal y siguiendo las indicaciones del fabricante. Podemos usar parte de este agua para aligerar un poco la salsa, en caso de ser necesario. Agregamos el queso feta desmigado a la salsa, removemos y listo. Ya podemos servir nuestros espaguetis con la salsa por encima y previamente mezclado.</t>
+  </si>
+  <si>
+    <t>En un robot de cocina, batidora o procesador de alimentos, volcar los garbanzos cocidos (y limpios de la conserva) junto a la cebolla, las semillas de sésamo, los condimentos y el aceite de oliva. Procesar unos minutos nomás, de 2 a 3 minutos, para que se integren sin alcanzar una consistencia de puré homogéneo. Si resulta muy húmeda la mezcla, incorporar unas cucharadas de harina, ya que se debe poder manejar con las manos.  Con las manos, levemente húmedas, formar las hamburguesas dándole la forma deseada. Saldrán dos unidades aproximadamente. En una sartén con aceite de oliva o antiadherente a fuego medio-bajo, cocinar los medallones hasta que estén doradas de cada lado, volteando con mucho cuidado para que no se rompan. Unos 3 minutos de cada lado. Reservar mientras se preparan los ingredientes restantes para montar la hamburguesa; tomate en rodajas y lechugas varias. Pero puedes complementar con tus ingredientes preferidos.</t>
+  </si>
+  <si>
+    <t>En una olla, volcar el arroz. Agregar la leche de coco y el agua. Revolver con cuchara de madera para diluir e integrar los ingredientes. Llevar a ebullición, a fuego medio, y dejar cocinar por 20 minutos aproximadamente. Unos minutos antes de que el liquido se haya consumido completamente, espolvorear el coco rallado sobre el cereal. Continuar la cocción unos 5 minutos más. Una vez listo, perfumar con perejil fresco o seco si gustan.</t>
+  </si>
+  <si>
+    <t>Primero, será preparar las palomitas. En un cazo (o una sartén) sin aceite poner a calentar a fuego medio. Volcar los granos de maíz y tapar hasta que empiecen a explotar. Remover con cuidado para que todos los granos tengan contacto con el fondo de la olla y el calor para explotar. Esperar hasta que se hagan todas las palomitas (aproximadamente unos 4 minutos).Una vez que dejen de explotar, retirar del fuego y salar inmediatamente con la sal en escamas para que se adhiera con el calor residual.  Volcar luego sobre una placa para el horno con papel vegetal o silpat, y acomodar por toda la superficie. Espolvorear el curry molido, la ralladura de limón y el sirope de ágave. Remover constantemente con una espátula para adherir los ingredientes a las palomitas. Hornear por 10 minutos a 180 ºC para que tome un color dorado. Retirar del horno con cuidado y dejar reposar 10 minutos antes de picar.</t>
   </si>
   <si>
     <t>Para los tallarines de pepino, lavar y secar bien las unidades. Hacer los espirales usando un espiralizador, una mandolina, un cortador manual o un pelador con dientes. Una vez listos, reservar en un cuenco hondo. Agregar la ralladura de limón y el yogur natural. Revolver con cuidado para no romper los tallarines. Condimentar con la sal y la pimienta, y las semillas de sésamo. Conservar en la nevera hasta el momento de servir y espolvorear el eneldo seco, o cualquier hierba fresca de preferencia.</t>
@@ -217,19 +226,19 @@
     <t>Pelamos las patatas y las cortamos en trozos de igual tamaño. Calentamos abundante agua con sal en una cacerola y, cuando arranque a hervir, los introducimos junto con los huevos. Retiramos estos últimos después de diez minutos y continuamos cociendo la patata hasta que esté tierna. Pelamos el pepino, la zanahoria y la cebolla morada y picamos todo finamente. Introducimos en un bol y añadimos un poco de sal, removemos y dejamos que se reblandezcan mientras sueltan sus jugos. Pelamos también los huevos y los picamos muy fino.Preparamos la salsa mezclando la mayonesa con el vinagre de arroz, el azúcar y la mostaza. Cuando la patata esté tierna la escurrimos y la pasamos por un pasapurés. Agregamos los huevos duros, las verduras -bien escurridas- y el maíz (opcional).Incorporamos la salsa y removemos para integrar todo bien. Probamos el punto de sal y añadimos más si lo consideramos necesario. Dejamos reposar la ensalada en la nevera, donde la patata irá absorbiendo la salsa poco a poco. Cuando esté bien fría, ya está lista para servir.</t>
   </si>
   <si>
-    <t>Colocamos los garbanzos en una cazuela junto con el líquido de la conserva y un poco de agua, que queden cubiertos a ras. Añadimos el comino, un diente de ajo rallado, sal y pimienta negra. Cocemos 15 minutos o hasta que estén secos. Añadimos un buen puñado de perejil fresco picado. Reservamos. Mientras tanto, cortamos los panes de pita por la mitad, longitudinalmente, y después en triángulos. Los colocamos en una fuente de horno y los tostamos bajo el grill durante unos seis o siete minutos, lo necesario para que queden dorados y bien secos. Reservamos.Por otro lado mezclamos el yogur griego con el tahini, dos dientes de ajo finamente picados (o rallados), el zumo de los dos limones y sal al gusto. Tiene que quedar cremosa, por lo que es posible que necesitemos añadir un poco de agua para aligerarla.Armamos el fatteh colocando los triángulos de pan de pita en la base de una fuente o plato. Extendemos una capa de yogur sobre ellos y luego una capa de garbanzos. Repetimos la operación de nuevo. Espolvoreamos con perejil picado u otra hierba (la menta le va genial), regamos con un chorrito de aceite de oliva virgen extra y servimos.</t>
-  </si>
-  <si>
-    <t>Encender el horno a 200 ºC.En un cuenco mediano, mezclar la harina de garbanzos junto con la cebolla en polvo, orégano seco, bicarbonato sódico, sal y pimienta. Agregar el agua y batir hasta mezclar. La masa quedará líquida, no espesa. Mientras tanto preparar las verduras, que irán en crudo. El pimiento verde, por ejemplo, en pequeños cubos y las hojas de espinaca groseramente picadas. Junto con el maíz amarillo y los guisantes, añadir a la mezcla anterior e integrar. Con una taza medidora de 1/4, acomodar la masa y completar cada molde de muffin de silicona. De utilizar moldes de acero, pintar con aceite la superficie antes. Hornear durante 30 minutos, hasta que el borde se vea dorado y el centro esté compacto y cuajado. Pasado ese tiempo, apagar el horno y mantener los muffins dentro por 10 minutos más. Una vez fuera, reposar unos minutos y aflojar los lados con una para quitar fácilmente.</t>
-  </si>
-  <si>
-    <t>En un cuenco, volcar el cuscús y agregar el zumo de naranja (levemente templado en el microondas unos dos minutos antes). Tapar y dejar reposar 10 minutos.Con un tenedor, soltar los granos de cuscús y condimentar con la sal y la pimienta al gusto antes de servir.</t>
-  </si>
-  <si>
-    <t>En un robot de cocina, procesar la granola unos segundos, hasta obtener un arenado. Volcar en un cuenco, y agregar la esencia de vainilla junto a la mantequilla de cacahuete hasta lograr una masa maleable. Con las manos, tomar pociones de la masa y darle una forma redonda. Acomodar en un plato y de manera opcional: derretir el chocolate negro a baño maría o al microondas, y decorar cada bocado o bañar la trufa entera.  Conservar en la nevera hasta el momento de consumir.</t>
-  </si>
-  <si>
-    <t>Comenzar hirviendo las patatas enteras en un cazo con abundante agua, hasta que estén tiernas. Una vez listas, escurrir, reservar y dejar enfriar. Con ayuda de un cuchillo, quitar la piel y cortar en láminas, cuadrados grandes o cubos pequeños. Tomar el pepino, cortar a lo largo y luego en mitades. Reservar. En una ensaladera o cuenco profundo, volcar las patatas, el pepino y el maíz. Condimentar con la sal y la pimienta. Agregar el yogur natural y aligerar con el zumo de limón y aceite de oliva virgen extra para lograr una simil salsa o vinagreta. Por último, añadir el perejil picado, la ralladura de limón y revolver una vez más para integrar los sabores. Conservar en la nevera hasta el momento de servir para una mayor frescura.</t>
+    <t>https://www.directoalpaladar.com/recetas-vegetarianas/lentejas-tambien-para-verano-esta-ensalada-facil-saludable-rapida-muy-rica</t>
+  </si>
+  <si>
+    <t>https://www.directoalpaladar.com/recetas-vegetarianas/espaguetis-salsa-berenjena-tomate-queso-feta-receta-casera-deliciosa-que-querras-hacer-otra-vez</t>
+  </si>
+  <si>
+    <t>https://www.directoalpaladar.com/recetas-vegetarianas/hamburguesa-garbanzos-bote-legumbres-tienes-comida-bien-rica</t>
+  </si>
+  <si>
+    <t>https://www.directoalpaladar.com/recetas-vegetarianas/arroz-al-coco-truco-para-darle-sabor-al-cereal-todos-dias</t>
+  </si>
+  <si>
+    <t>https://www.directoalpaladar.com/recetas-vegetarianas/palomitas-maiz-al-curry-picoteo-diferente-adictivo</t>
   </si>
   <si>
     <t>https://www.directoalpaladar.com/recetas-vegetarianas/tallarines-pepino-yogur-receta-que-simplemente-grita-verano</t>
@@ -275,21 +284,6 @@
   </si>
   <si>
     <t>https://www.directoalpaladar.com/recetas-vegetarianas/no-sabia-que-mis-ensaladas-legumbres-tenian-fallo-todo-ha-cambiado-que-no-me-salto-este-truco</t>
-  </si>
-  <si>
-    <t>https://www.directoalpaladar.com/recetas-vegetarianas/como-hacer-fatteh-ensalada-garbanzos-especiados-yogur-pan-pita-crujiente-oriente-medio</t>
-  </si>
-  <si>
-    <t>https://www.directoalpaladar.com/recetas-vegetarianas/frittata-verduras-molde-muffins-clasico-italiano-para-disfrutar-formato-individual</t>
-  </si>
-  <si>
-    <t>https://www.directoalpaladar.com/recetas-vegetarianas/cuscus-a-naranja-10-minutos-receta-truco-sencillo-para-darle-sabor-al-cereal</t>
-  </si>
-  <si>
-    <t>https://www.directoalpaladar.com/recetas-vegetarianas/trufas-granola-snack-facil-hacer-nutritivo-bien-rico</t>
-  </si>
-  <si>
-    <t>https://www.directoalpaladar.com/recetas-vegetarianas/ensalada-patatas-pepino-maiz-dulce-combinacion-sabores-bien-rica-e-ideal-para-calor</t>
   </si>
 </sst>
 </file>
@@ -696,14 +690,8 @@
       <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -714,10 +702,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -728,10 +722,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -745,13 +745,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -762,10 +762,16 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -776,10 +782,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -792,14 +804,8 @@
       <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -810,10 +816,10 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -824,10 +830,16 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -838,10 +850,10 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -854,14 +866,8 @@
       <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -875,13 +881,13 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -892,16 +898,10 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -912,10 +912,10 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -926,10 +926,10 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -940,16 +940,16 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -963,13 +963,13 @@
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
         <v>68</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -980,16 +980,16 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1002,14 +1002,8 @@
       <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1020,16 +1014,10 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
